--- a/stim/stimuli_list.xlsx
+++ b/stim/stimuli_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyi\Desktop\COGS189Project-main\stim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070EAA97-4CE9-442F-9D03-12A4B4360A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0F619-FE9B-41A8-82E0-FDD9CE45A0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8310" yWindow="570" windowWidth="10760" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>stimuli_name</t>
   </si>
   <si>
-    <t>audio/kick_1.wav</t>
-  </si>
-  <si>
-    <t>audio/kick_2.wav</t>
-  </si>
-  <si>
-    <t>audio/kick_3.wav</t>
-  </si>
-  <si>
-    <t>audio/snare_1.wav</t>
-  </si>
-  <si>
-    <t>audio/snare_2.wav</t>
-  </si>
-  <si>
-    <t>audio/snare_3.wav</t>
+    <t>audio/exp0/kick_mp1.wav</t>
+  </si>
+  <si>
+    <t>audio/exp0/kick_mp2.wav</t>
+  </si>
+  <si>
+    <t>audio/exp0/kick_iso.wav</t>
+  </si>
+  <si>
+    <t>audio/exp0/snare_mp1.wav</t>
+  </si>
+  <si>
+    <t>audio/exp0/snare_mp2.wav</t>
+  </si>
+  <si>
+    <t>audio/exp0/snare_iso.wav</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
